--- a/glmmodel.xlsx
+++ b/glmmodel.xlsx
@@ -14,21 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>outcome</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>treatment</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Prewt</t>
+  </si>
+  <si>
+    <t>Treat</t>
+  </si>
+  <si>
+    <t>TreatCBT</t>
+  </si>
+  <si>
+    <t>TreatCont</t>
+  </si>
+  <si>
+    <t>TreatFT</t>
   </si>
   <si>
     <t>variables</t>
@@ -40,16 +40,10 @@
     <t>(Intercept)</t>
   </si>
   <si>
-    <t>outcome2</t>
-  </si>
-  <si>
-    <t>outcome3</t>
-  </si>
-  <si>
-    <t>=VLOOKUP(B1,Coeff!A1:B5,2, FALSE)</t>
-  </si>
-  <si>
-    <t>=B2*VLOOKUP(A2,Coeff!A1:B5,2, FALSE)</t>
+    <t>=B1*VLOOKUP(A1,Coeff!A1:B5,2, FALSE)</t>
+  </si>
+  <si>
+    <t>=VLOOKUP(B2,Coeff!A1:B5,2, FALSE)</t>
   </si>
 </sst>
 </file>
@@ -386,31 +380,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>94.9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -440,23 +431,23 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>3.04452243772342</v>
+        <v>49.7711090149846</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.454255272277594</v>
+        <v>-0.565538849639097</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.292987124681472</v>
+        <v>-4.0970655280729</v>
       </c>
     </row>
     <row r="5">
@@ -464,7 +455,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.000000000000000854871720870233</v>
+        <v>4.56306265291879</v>
       </c>
     </row>
   </sheetData>
@@ -486,15 +477,15 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
